--- a/TongHopSinhVienVangNhieu.xlsx
+++ b/TongHopSinhVienVangNhieu.xlsx
@@ -503,17 +503,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2100007079</t>
+          <t>2100004740</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dương Phát</t>
+          <t>Mai Hoàng</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Huy</t>
+          <t>Anh</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -523,23 +523,23 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2003-08-27</t>
+          <t>2003-03-27</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
         <v>30</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>83.3</v>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -548,29 +548,29 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>010107381602</t>
+          <t>010107381601</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[010107381602] - Thị giác máy tính(21DCD1A)</t>
+          <t>Thị giác máy tính (010107381601 - 21DCD1A)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2100011821</t>
+          <t>2100007080</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Trần Đức</t>
+          <t>Võ Nguyễn Nhật</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Khoa</t>
+          <t>Huy</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -580,23 +580,23 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2002-12-25</t>
+          <t>2003-12-23</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
         <v>30</v>
       </c>
       <c r="I3" t="n">
-        <v>33.3</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -605,29 +605,29 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>010107381602</t>
+          <t>010107381601</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[010107381602] - Thị giác máy tính(21DCD1A)</t>
+          <t>Thị giác máy tính (010107381601 - 21DCD1A)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2100006671</t>
+          <t>2100010392</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Trương Hoàng Tuấn</t>
+          <t>Nguyễn Thế</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Kiệt</t>
+          <t>Lâm</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -637,23 +637,23 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2003-04-15</t>
+          <t>2003-02-01</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
         <v>30</v>
       </c>
       <c r="I4" t="n">
-        <v>50</v>
+        <v>33.3</v>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -662,29 +662,29 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>010107381602</t>
+          <t>010107381601</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[010107381602] - Thị giác máy tính(21DCD1A)</t>
+          <t>Thị giác máy tính (010107381601 - 21DCD1A)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2100012149</t>
+          <t>2100007079</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nguyễn Đức</t>
+          <t>Dương Phát</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Phước</t>
+          <t>Huy</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -694,23 +694,23 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2003-10-28</t>
+          <t>2003-08-27</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H5" t="n">
         <v>30</v>
       </c>
       <c r="I5" t="n">
-        <v>33.3</v>
+        <v>100</v>
       </c>
       <c r="J5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -731,17 +731,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1900006454</t>
+          <t>2100011821</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Huỳnh Nguyễn Nhựt</t>
+          <t>Trần Đức</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tuân</t>
+          <t>Khoa</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -751,23 +751,23 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2000-11-03</t>
+          <t>2002-12-25</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
         <v>30</v>
       </c>
       <c r="I6" t="n">
-        <v>50</v>
+        <v>33.3</v>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -788,43 +788,43 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2100002531</t>
+          <t>2100006671</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lê Thị Thúy</t>
+          <t>Trương Hoàng Tuấn</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vy</t>
+          <t>Kiệt</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2003-10-16</t>
+          <t>2003-04-15</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H7" t="n">
         <v>30</v>
       </c>
       <c r="I7" t="n">
-        <v>83.3</v>
+        <v>50</v>
       </c>
       <c r="J7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -845,17 +845,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2100004740</t>
+          <t>2100012149</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mai Hoàng</t>
+          <t>Nguyễn Đức</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Anh</t>
+          <t>Phước</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -865,23 +865,23 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2003-03-27</t>
+          <t>2003-10-28</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
         <v>30</v>
       </c>
       <c r="I8" t="n">
-        <v>83.3</v>
+        <v>33.3</v>
       </c>
       <c r="J8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -890,29 +890,29 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>010107381601</t>
+          <t>010107381602</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Thị giác máy tính (010107381601 - 21DCD1A)</t>
+          <t>[010107381602] - Thị giác máy tính(21DCD1A)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2100007080</t>
+          <t>1900006454</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Võ Nguyễn Nhật</t>
+          <t>Huỳnh Nguyễn Nhựt</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Huy</t>
+          <t>Tuân</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -922,23 +922,23 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2003-12-23</t>
+          <t>2000-11-03</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H9" t="n">
         <v>30</v>
       </c>
       <c r="I9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J9" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -947,55 +947,55 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>010107381601</t>
+          <t>010107381602</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Thị giác máy tính (010107381601 - 21DCD1A)</t>
+          <t>[010107381602] - Thị giác máy tính(21DCD1A)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2100010392</t>
+          <t>2100002531</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nguyễn Thế</t>
+          <t>Lê Thị Thúy</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Lâm</t>
+          <t>Vy</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2003-02-01</t>
+          <t>2003-10-16</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H10" t="n">
         <v>30</v>
       </c>
       <c r="I10" t="n">
-        <v>33.3</v>
+        <v>83.3</v>
       </c>
       <c r="J10" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1004,12 +1004,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>010107381601</t>
+          <t>010107381602</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Thị giác máy tính (010107381601 - 21DCD1A)</t>
+          <t>[010107381602] - Thị giác máy tính(21DCD1A)</t>
         </is>
       </c>
     </row>

--- a/TongHopSinhVienVangNhieu.xlsx
+++ b/TongHopSinhVienVangNhieu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,17 +503,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2100004740</t>
+          <t>2100007079</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mai Hoàng</t>
+          <t>Dương Phát</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Anh</t>
+          <t>Huy</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -523,23 +523,23 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2003-03-27</t>
+          <t>2003-08-27</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
         <v>30</v>
       </c>
       <c r="I2" t="n">
-        <v>83.3</v>
+        <v>100</v>
       </c>
       <c r="J2" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -548,29 +548,29 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>010107381601</t>
+          <t>010107381602</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Thị giác máy tính (010107381601 - 21DCD1A)</t>
+          <t>[010107381602] - Thị giác máy tính(21DCD1A)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2100007080</t>
+          <t>2100011821</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Võ Nguyễn Nhật</t>
+          <t>Trần Đức</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Huy</t>
+          <t>Khoa</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -580,23 +580,23 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2003-12-23</t>
+          <t>2002-12-25</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
         <v>30</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>33.3</v>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -605,29 +605,29 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>010107381601</t>
+          <t>010107381602</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Thị giác máy tính (010107381601 - 21DCD1A)</t>
+          <t>[010107381602] - Thị giác máy tính(21DCD1A)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2100010392</t>
+          <t>2100006671</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nguyễn Thế</t>
+          <t>Trương Hoàng Tuấn</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lâm</t>
+          <t>Kiệt</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -637,23 +637,23 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2003-02-01</t>
+          <t>2003-04-15</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H4" t="n">
         <v>30</v>
       </c>
       <c r="I4" t="n">
-        <v>33.3</v>
+        <v>50</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -662,29 +662,29 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>010107381601</t>
+          <t>010107381602</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Thị giác máy tính (010107381601 - 21DCD1A)</t>
+          <t>[010107381602] - Thị giác máy tính(21DCD1A)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2100007079</t>
+          <t>2100012149</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dương Phát</t>
+          <t>Nguyễn Đức</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Huy</t>
+          <t>Phước</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -694,23 +694,23 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2003-08-27</t>
+          <t>2003-10-28</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
         <v>30</v>
       </c>
       <c r="I5" t="n">
-        <v>100</v>
+        <v>33.3</v>
       </c>
       <c r="J5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -731,17 +731,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2100011821</t>
+          <t>1900006454</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Trần Đức</t>
+          <t>Huỳnh Nguyễn Nhựt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Khoa</t>
+          <t>Tuân</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -751,23 +751,23 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2002-12-25</t>
+          <t>2000-11-03</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H6" t="n">
         <v>30</v>
       </c>
       <c r="I6" t="n">
-        <v>33.3</v>
+        <v>50</v>
       </c>
       <c r="J6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -788,43 +788,43 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2100006671</t>
+          <t>2100002531</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Trương Hoàng Tuấn</t>
+          <t>Lê Thị Thúy</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Kiệt</t>
+          <t>Vy</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2003-04-15</t>
+          <t>2003-10-16</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H7" t="n">
         <v>30</v>
       </c>
       <c r="I7" t="n">
-        <v>50</v>
+        <v>83.3</v>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -837,177 +837,6 @@
         </is>
       </c>
       <c r="M7" t="inlineStr">
-        <is>
-          <t>[010107381602] - Thị giác máy tính(21DCD1A)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2100012149</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Nguyễn Đức</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Phước</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Nam</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2003-10-28</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
-      </c>
-      <c r="G8" t="n">
-        <v>5</v>
-      </c>
-      <c r="H8" t="n">
-        <v>30</v>
-      </c>
-      <c r="I8" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>10</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>HK 3 NH 2023-2024</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>010107381602</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>[010107381602] - Thị giác máy tính(21DCD1A)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>1900006454</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Huỳnh Nguyễn Nhựt</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Tuân</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Nam</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2000-11-03</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>15</v>
-      </c>
-      <c r="H9" t="n">
-        <v>30</v>
-      </c>
-      <c r="I9" t="n">
-        <v>50</v>
-      </c>
-      <c r="J9" t="n">
-        <v>15</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>HK 3 NH 2023-2024</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>010107381602</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>[010107381602] - Thị giác máy tính(21DCD1A)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2100002531</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Lê Thị Thúy</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Vy</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Nữ</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2003-10-16</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>25</v>
-      </c>
-      <c r="H10" t="n">
-        <v>30</v>
-      </c>
-      <c r="I10" t="n">
-        <v>83.3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>25</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>HK 3 NH 2023-2024</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>010107381602</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
         <is>
           <t>[010107381602] - Thị giác máy tính(21DCD1A)</t>
         </is>
